--- a/teadmusbaas/teadmusbaas.xlsx
+++ b/teadmusbaas/teadmusbaas.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joosep\PycharmProjects\konfiguraator-app\teadmusbaas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A32107A-FF59-4A80-AEC2-F948D281630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D220E7C-965A-4A35-97BE-93F4B2C6C6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vs" sheetId="1" r:id="rId1"/>
-    <sheet name="õhuleke" sheetId="2" r:id="rId2"/>
+    <sheet name="sokkel" sheetId="3" r:id="rId2"/>
+    <sheet name="katus" sheetId="7" r:id="rId3"/>
+    <sheet name="õhuleke" sheetId="2" r:id="rId4"/>
+    <sheet name="küttesüsteem" sheetId="4" r:id="rId5"/>
+    <sheet name="soojusjaotus" sheetId="5" r:id="rId6"/>
+    <sheet name="ventilatsioon" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>U-arv</t>
   </si>
@@ -37,40 +42,277 @@
     <t>SILS 200mm</t>
   </si>
   <si>
-    <t>Tehaseline paneel</t>
-  </si>
-  <si>
     <t>Utoopia</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>ol. olev</t>
-  </si>
-  <si>
-    <t>nimetus</t>
-  </si>
-  <si>
-    <t>väärtus</t>
-  </si>
-  <si>
-    <t>halb</t>
-  </si>
-  <si>
-    <t>keskmine</t>
-  </si>
-  <si>
-    <t>hea</t>
-  </si>
-  <si>
-    <t>9.9</t>
+    <t>Kaal (kg/m²)</t>
+  </si>
+  <si>
+    <t>Lühikirjeldus</t>
+  </si>
+  <si>
+    <t>Nimetus</t>
+  </si>
+  <si>
+    <t>Paksus (mm)</t>
+  </si>
+  <si>
+    <t>Õhumüra isolatsiooniindeks</t>
+  </si>
+  <si>
+    <t>Ruutmeetri hind (EUR)</t>
+  </si>
+  <si>
+    <t>Välisviimistlus</t>
+  </si>
+  <si>
+    <t>Krohvitud</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Välisilmet ei muudeta</t>
+  </si>
+  <si>
+    <t>Pigmenteeritud tsementkiudplaat</t>
+  </si>
+  <si>
+    <t>Arhitekti valik</t>
+  </si>
+  <si>
+    <t>Ebarealistlik variant, millega saad Sa näha kui palju üldse välissein võib su hoone energiatõhusust mõjutada.</t>
+  </si>
+  <si>
+    <t>Tehases toodetud puitpaneel. Õhem paneel laseb rohkem soojust välja, kuid on materjalikulu poolest odavam. Toodetud kontrollitud keskkonnas, mis annab kvaliteetsema tulemuse. Kiire paigaldus, kuid kõrge hind.</t>
+  </si>
+  <si>
+    <t>Tehases toodetud puitpaneel. Paksem paneel laseb vähem soojust välja ja selle sisse on võimalik vajadusel paigaldada ka tehnosüsteemide torustikke. Toodetud kontrollitud keskkonnas, mis annab kvaliteetsema tulemuse. Kiire paigaldus, kuid kõrgem hind.</t>
+  </si>
+  <si>
+    <t>Välisseina ei muudeta ja selle tehnilised omadused ei muutu.</t>
+  </si>
+  <si>
+    <t>Kaal</t>
+  </si>
+  <si>
+    <t>Ruutmeetri hind</t>
+  </si>
+  <si>
+    <t>Muutmata</t>
+  </si>
+  <si>
+    <t>Ei muudeta</t>
+  </si>
+  <si>
+    <t>XPS 150mm</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>XPS 200mm</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>PIR 200mm</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>Olemasolev sokkel säilitatakse ja hürdoisolatsiooni ei parandata. Välisilme jääb muutumatuks.</t>
+  </si>
+  <si>
+    <t>Õhuke soojustuskiht XPS plaatidega. Süsteemne ja nõuetekohane lahendus koos uue hürdoisolatsiooni ja välisviimistlusega.</t>
+  </si>
+  <si>
+    <t>Keskmise paksusega soojustuskiht XPS plaatidega. Süsteemne ja nõuetekohane lahendus koos uue hürdoisolatsiooni ja välisviimistlusega.</t>
+  </si>
+  <si>
+    <t>Kõige parema soojusisoleerivusega PIR isolatsioonimaterjal. Lahendus on kallim, kuid võimaldab rajada õhema sokli samade tehniliste omaduste juures.</t>
+  </si>
+  <si>
+    <t>Õhulekkearv</t>
+  </si>
+  <si>
+    <t>kaugküte</t>
+  </si>
+  <si>
+    <t>tõhus kaugküte</t>
+  </si>
+  <si>
+    <t>gaasikatel</t>
+  </si>
+  <si>
+    <t>gaas kondensatsioonikatel</t>
+  </si>
+  <si>
+    <t>õlikatel</t>
+  </si>
+  <si>
+    <t>pelletikatel</t>
+  </si>
+  <si>
+    <t>halupuidu katel</t>
+  </si>
+  <si>
+    <t>õhk-vesi soojuspump</t>
+  </si>
+  <si>
+    <t>maasoojuspump</t>
+  </si>
+  <si>
+    <t>ahiküte</t>
+  </si>
+  <si>
+    <t>Kaugküte</t>
+  </si>
+  <si>
+    <t>Tõhus Kaugküte</t>
+  </si>
+  <si>
+    <t>Gaasikatel</t>
+  </si>
+  <si>
+    <t>Gaas Kondensatsioonikatel</t>
+  </si>
+  <si>
+    <t>Õlikatel</t>
+  </si>
+  <si>
+    <t>Pelletikatel</t>
+  </si>
+  <si>
+    <t>Halupuidu Katel</t>
+  </si>
+  <si>
+    <t>Õhk-Vesi Soojuspump</t>
+  </si>
+  <si>
+    <t>Maasoojuspump</t>
+  </si>
+  <si>
+    <t>Ahiküte</t>
+  </si>
+  <si>
+    <t>Kredex vaste</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>Väärtus</t>
+  </si>
+  <si>
+    <t>Radiaatorid</t>
+  </si>
+  <si>
+    <t>Põrandküte</t>
+  </si>
+  <si>
+    <t>radiaatorid</t>
+  </si>
+  <si>
+    <t>põrandküte</t>
+  </si>
+  <si>
+    <t>soojustagastusega ventilatsioon</t>
+  </si>
+  <si>
+    <t>sundväljatõmme</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>Loomulik ventilatsioon</t>
+  </si>
+  <si>
+    <t>väljatõmme soojustagastuseta (korteripõhised ventilaatorid)</t>
+  </si>
+  <si>
+    <t>väljatõmme soojustagastuseta (tsentraalsed ventilaatorid)</t>
+  </si>
+  <si>
+    <t>väljatõmme soojustagastusega (väljatõmbeõhu soojuspump)</t>
+  </si>
+  <si>
+    <t>sissepuhe-väljatõmme soojustagastusega (korteripõhine agregaat)</t>
+  </si>
+  <si>
+    <t>sissepuhe-väljatõmme soojustagastusega (tsentraalne agregaat)</t>
+  </si>
+  <si>
+    <t>Korteripõhine ventilaator</t>
+  </si>
+  <si>
+    <t>Tsentraalne ventilaator</t>
+  </si>
+  <si>
+    <t>Soojustagastusega soojuspump</t>
+  </si>
+  <si>
+    <t>Korteripõhine soojustagastusega sissepuhke-väljatõmbe agregaat</t>
+  </si>
+  <si>
+    <t>Tsentraalne soojustagastusega sissepuhke-väljatõmbe agregaat</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>Valtsplekk</t>
+  </si>
+  <si>
+    <t>Soojustatud kaldkatus</t>
+  </si>
+  <si>
+    <t>Katusekonstruktsioon vahetatakse välja.</t>
+  </si>
+  <si>
+    <t>GWP</t>
+  </si>
+  <si>
+    <t>Hea</t>
+  </si>
+  <si>
+    <t>Väga hea</t>
+  </si>
+  <si>
+    <t>Tavaline</t>
+  </si>
+  <si>
+    <t>Hoone õhupidavus ei parane üldse</t>
+  </si>
+  <si>
+    <t>Hoone õhupidavus paraneb, kuid sellele ei pöörata erilist tähelepanu</t>
+  </si>
+  <si>
+    <t>Raskesti saavutav hoone õhupidavus</t>
+  </si>
+  <si>
+    <t>Mõistlikult saavutatav renoveeritud korterelamu õhupidavus</t>
+  </si>
+  <si>
+    <t>Traditsioonilisem ja odavam fassaadisüsteem, mis ehitatakse objektil. Tulemus sõltub ehitajast ja ilmast.</t>
+  </si>
+  <si>
+    <t>loomulik ventilatsioon (sh ilma loomuliku tõmbe lõõrideta)</t>
+  </si>
+  <si>
+    <t>Tehaseline paneel õhuke</t>
+  </si>
+  <si>
+    <t>Tehaseline paneel paks</t>
   </si>
 </sst>
 </file>
@@ -114,11 +356,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,71 +653,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="9" max="9" width="140" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3">
+        <v>0.13</v>
+      </c>
+      <c r="C3">
+        <v>210</v>
+      </c>
+      <c r="D3">
+        <v>58</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>0.13</v>
+      </c>
+      <c r="C4">
+        <v>266</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>31.1</v>
+      </c>
+      <c r="F4">
+        <v>99</v>
+      </c>
+      <c r="G4">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <v>0.11</v>
+      </c>
+      <c r="C5">
+        <v>371</v>
+      </c>
+      <c r="D5">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F5">
+        <v>135</v>
+      </c>
+      <c r="G5">
+        <v>43.2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
+      <c r="B6">
+        <v>0.06</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -472,48 +851,574 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CE5659-78D4-4424-9362-348590408F72}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DFC1B3-2AE0-4FAC-9DEC-9F486DBC1A24}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28013935-BDC1-44F9-A767-B68637B04112}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C552121B-FFA4-4D8A-8BCC-0BF5A1BDFB1D}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA05A9A9-AB35-4C84-83F7-F0929281B541}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635DAA45-B46C-447C-9145-A9867A3C7553}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
